--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Percy\Desktop\MTI\projet_team11\Model\Test\ConstrainedKmeans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2025ABC4-B471-46FB-8CFB-D3A85859F4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A66E3AFD-20E5-4141-909F-1896EE6B1B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="mapping2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="314">
   <si>
     <t>ISO27002 standards</t>
   </si>
@@ -34,484 +34,496 @@
     <t>5.1.1:Policies for information security</t>
   </si>
   <si>
-    <t>ID.GV-1:Organizational cybersecurity policy is established and communicated, ID.RA-2:Cyber threat intelligence is received from information sharing forums and sources, PR.AC-3:Remote access is managed</t>
-  </si>
-  <si>
-    <t>['man', 'access', 'threat']</t>
+    <t>ID.GV-1:Organizational cybersecurity policy is established and communicated, PR.IP-6:Data is destroyed according to policy, PR.PT-2:Removable media is protected and its use restricted according to policy</t>
+  </si>
+  <si>
+    <t>['sec policy', 'policy sec', 'commun']</t>
   </si>
   <si>
     <t>5.1.2:Review of the policies for information security</t>
   </si>
   <si>
-    <t>PR.IP-5:Policy and regulations regarding the physical operating environment for organizational assets are met, PR.IP-12:A vulnerability management plan is developed and implemented, PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy</t>
-  </si>
-  <si>
-    <t>['review', 'impl', 'review policy']</t>
+    <t>ID.GV-1:Organizational cybersecurity policy is established and communicated, PR.IP-5:Policy and regulations regarding the physical operating environment for organizational assets are met, PR.PT-2:Removable media is protected and its use restricted according to policy</t>
+  </si>
+  <si>
+    <t>['review', 'policy sec', 'review policy']</t>
   </si>
   <si>
     <t>6.1.1:Information security roles and responsibilities</t>
   </si>
   <si>
-    <t>ID.GV-2:Cybersecurity roles and responsibilities are coordinated and aligned with internal roles and external partners</t>
-  </si>
-  <si>
-    <t>['rol', 'rol respons', 'extern']</t>
+    <t>PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy, DE.DP-1:Roles and responsibilities for detection are well defined to ensure accountability</t>
+  </si>
+  <si>
+    <t>['rol', 'defin', 'inform sec']</t>
   </si>
   <si>
     <t>6.1.2:Segregation of duties</t>
   </si>
   <si>
-    <t>DE.CM-4:Malicious code is detected, DE.CM-5:Unauthorized mobile code is detected, RC.CO-2:Reputation is repaired after an incident</t>
-  </si>
-  <si>
-    <t>['detect', 'mobl', 'mobl cod']</t>
+    <t>PR.DS-4:Adequate capacity to ensure availability is maintained, PR.IP-1:A baseline configuration of information technology/industrial control systems is created and maintained incorporating security principles (e.g. concept of least functionality), PR.IP-3:Configuration change control processes are in place</t>
+  </si>
+  <si>
+    <t>['segreg', 'duty', 'maintain']</t>
   </si>
   <si>
     <t>6.1.3:Contact with authorities</t>
   </si>
   <si>
-    <t>PR.IP-8:Effectiveness of protection technologies is shared, DE.AE-4:Impact of events is determined, RC.CO-1:Public relations are managed</t>
-  </si>
-  <si>
-    <t>['contact', 'auth', 'man']</t>
+    <t>ID.AM-5:Resources (e.g., hardware, devices, data, time, personnel, and software) are prioritized based on their classification, criticality, and business value, PR.AC-1:Identities and credentials are issued, managed, verified, revoked, and audited for authorized devices, users and processes, PR.AC-4:Access permissions and authorizations are managed, incorporating the principles of least privilege and separation of duties</t>
+  </si>
+  <si>
+    <t>['contact', 'dev', 'contact auth']</t>
   </si>
   <si>
     <t>6.1.4:Contact with special interest groups</t>
   </si>
   <si>
-    <t>ID.RA-2:Cyber threat intelligence is received from information sharing forums and sources, PR.IP-4:Backups of information are conducted, maintained, and tested, PR.IP-8:Effectiveness of protection technologies is shared</t>
-  </si>
-  <si>
-    <t>['threat', 'backup', 'maintain']</t>
+    <t>PR.DS-4:Adequate capacity to ensure availability is maintained, PR.PT-4:Communications and control networks are protected, DE.DP-5:Detection processes are continuously improved</t>
+  </si>
+  <si>
+    <t>['contact', 'contact spec', 'spec contact']</t>
   </si>
   <si>
     <t>6.1.5:Information security in project management</t>
   </si>
   <si>
-    <t>PR.AC-2:Physical access to assets is managed and protected, PR.AC-3:Remote access is managed, PR.AC-4:Access permissions and authorizations are managed, incorporating the principles of least privilege and separation of duties</t>
-  </si>
-  <si>
-    <t>['man', 'auth', 'project']</t>
+    <t>PR.AT-1:All users are informed and trained</t>
+  </si>
+  <si>
+    <t>['inform', 'project man', 'sec project']</t>
   </si>
   <si>
     <t>6.2.1:Mobile device policy</t>
   </si>
   <si>
-    <t>DE.CM-7:Monitoring for unauthorized personnel, connections, devices, and software is performed</t>
-  </si>
-  <si>
-    <t>['mobl', 'mobl dev', 'monit']</t>
+    <t>ID.AM-1:Physical devices and systems within the organization are inventoried</t>
+  </si>
+  <si>
+    <t>['mobl dev', 'mobl', 'policy']</t>
   </si>
   <si>
     <t>6.2.2:Teleworking</t>
   </si>
   <si>
-    <t>PR.PT-3:The principle of least functionality is incorporated by configuring systems to provide only essential capabilities</t>
-  </si>
-  <si>
-    <t>['telework', 'system', 'funct']</t>
+    <t>ID.AM-5:Resources (e.g., hardware, devices, data, time, personnel, and software) are prioritized based on their classification, criticality, and business value, PR.MA-2:Remote maintenance of organizational assets is approved, logged, and performed in a manner that prevents unauthorized access, PR.PT-2:Removable media is protected and its use restricted according to policy</t>
+  </si>
+  <si>
+    <t>['access', 'prev', 'policy']</t>
   </si>
   <si>
     <t>7.1.1:Screening</t>
   </si>
   <si>
-    <t>PR.DS-5:Protections against data leaks are implemented, PR.IP-11:Cybersecurity is included in human resources practices (e.g., deprovisioning, personnel screening), RC.CO-1:Public relations are managed</t>
-  </si>
-  <si>
-    <t>['personnel', 'access', 'protect']</t>
+    <t>PR.AC-1:Identities and credentials are issued, managed, verified, revoked, and audited for authorized devices, users and processes, PR.IP-11:Cybersecurity is included in human resources practices (e.g., deprovisioning, personnel screening), PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy</t>
+  </si>
+  <si>
+    <t>['ver', 'audit', 'review']</t>
   </si>
   <si>
     <t>7.1.2:Terms and conditions of employment</t>
   </si>
   <si>
-    <t>ID.BE-3:Priorities for organizational mission, objectives, and activities are established and communicated</t>
-  </si>
-  <si>
-    <t>['contract', 'miss', 'process']</t>
+    <t>DE.AE-3:Event data are collected and correlated from multiple sources and sensors</t>
+  </si>
+  <si>
+    <t>['contract', 'employ contract', 'condit']</t>
   </si>
   <si>
     <t>7.2.1:Management responsibilities</t>
   </si>
   <si>
-    <t>RS.AN-2:The impact of the incident is understood, RC.CO-1:Public relations are managed, RC.CO-2:Reputation is repaired after an incident</t>
-  </si>
-  <si>
-    <t>['man', 'respons', 'incid handl']</t>
+    <t>ID.GV-3:Legal and regulatory requirements regarding cybersecurity, including privacy and civil liberties obligations, are understood and managed, PR.IP-11:Cybersecurity is included in human resources practices (e.g., deprovisioning, personnel screening), DE.DP-2:Detection activities comply with all applicable requirements</t>
+  </si>
+  <si>
+    <t>['requir', 'sec includ', 'man respons']</t>
   </si>
   <si>
     <t>7.2.2:Information security awareness, education and training</t>
   </si>
   <si>
-    <t>PR.AT-1:All users are informed and trained</t>
-  </si>
-  <si>
-    <t>['aw', 'inform', 'us']</t>
+    <t>['train', 'inform', 'educ']</t>
   </si>
   <si>
     <t>7.2.3:Disciplinary process</t>
   </si>
   <si>
-    <t>ID.RA-4:Potential business impacts and likelihoods are identified, PR.IP-12:A vulnerability management plan is developed and implemented, DE.CM-8:Vulnerability scans are performed</t>
-  </si>
-  <si>
-    <t>['process', 'man', 'scan']</t>
+    <t>PR.IP-3:Configuration change control processes are in place, DE.DP-5:Detection processes are continuously improved, RS.AN-5:Processes are established to receive, analyze and respond to vulnerabilities disclosed to the organization from internal and external sources (e.g. internal testing, security bulletins, or security researchers)</t>
+  </si>
+  <si>
+    <t>['disciplin', 'disciplin process', 'intern']</t>
   </si>
   <si>
     <t>7.3.1:Termination or change of employment responsibilities Control</t>
   </si>
   <si>
-    <t>PR.IP-11:Cybersecurity is included in human resources practices (e.g., deprovisioning, personnel screening)</t>
-  </si>
-  <si>
-    <t>['respons', 'termin', 'personnel']</t>
+    <t>PR.IP-3:Configuration change control processes are in place</t>
+  </si>
+  <si>
+    <t>['chang', 'termin', 'control']</t>
   </si>
   <si>
     <t>8.1.1:Inventory of assets Control</t>
   </si>
   <si>
-    <t>ID.AM-1:Physical devices and systems within the organization are inventoried, ID.AM-2:Software platforms and applications within the organization are inventoried, PR.DS-3:Assets are formally managed throughout removal, transfers, and disposition</t>
-  </si>
-  <si>
-    <t>['asset', 'compon', 'system']</t>
+    <t>PR.DS-3:Assets are formally managed throughout removal, transfers, and disposition, PR.MA-1:Maintenance and repair of organizational assets are performed and logged, with approved and controlled tools, PR.MA-2:Remote maintenance of organizational assets is approved, logged, and performed in a manner that prevents unauthorized access</t>
+  </si>
+  <si>
+    <t>['inv', 'control', 'inv asset']</t>
   </si>
   <si>
     <t>8.1.2:Ownership of assets Control</t>
   </si>
   <si>
+    <t>PR.IP-5:Policy and regulations regarding the physical operating environment for organizational assets are met</t>
+  </si>
+  <si>
+    <t>['own', 'control', 'own asset']</t>
+  </si>
+  <si>
+    <t>8.1.3:Acceptable use of assets</t>
+  </si>
+  <si>
+    <t>PR.AC-2:Physical access to assets is managed and protected, PR.MA-1:Maintenance and repair of organizational assets are performed and logged, with approved and controlled tools, PR.MA-2:Remote maintenance of organizational assets is approved, logged, and performed in a manner that prevents unauthorized access</t>
+  </si>
+  <si>
+    <t>['org asset', 'access', 'perform']</t>
+  </si>
+  <si>
+    <t>8.1.4:Return of assets</t>
+  </si>
+  <si>
+    <t>['org asset', 'maint', 'approv']</t>
+  </si>
+  <si>
+    <t>8.2.1:Classification of information</t>
+  </si>
+  <si>
+    <t>ID.AM-5:Resources (e.g., hardware, devices, data, time, personnel, and software) are prioritized based on their classification, criticality, and business value</t>
+  </si>
+  <si>
+    <t>['crit', 'class class', 'busy']</t>
+  </si>
+  <si>
+    <t>8.2.2:Labelling of information</t>
+  </si>
+  <si>
+    <t>PR.DS-5:Protections against data leaks are implemented, PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy, PR.PT-5:Mechanisms (e.g., failsafe, load balancing, hot swap) are implemented to achieve resilience requirements in normal and adverse situations</t>
+  </si>
+  <si>
+    <t>['impl', 'label label', 'class']</t>
+  </si>
+  <si>
+    <t>8.2.3:Handling of assets</t>
+  </si>
+  <si>
+    <t>PR.AC-2:Physical access to assets is managed and protected, PR.DS-3:Assets are formally managed throughout removal, transfers, and disposition, PR.PT-2:Removable media is protected and its use restricted according to policy</t>
+  </si>
+  <si>
+    <t>['protect', 'remov', 'handl']</t>
+  </si>
+  <si>
+    <t>8.3.1:Management of removable media Control</t>
+  </si>
+  <si>
+    <t>PR.PT-2:Removable media is protected and its use restricted according to policy</t>
+  </si>
+  <si>
+    <t>['remov', 'remov med', 'man remov']</t>
+  </si>
+  <si>
+    <t>8.3.2:Disposal of media</t>
+  </si>
+  <si>
+    <t>['dispos', 'dispos med', 'med dispos']</t>
+  </si>
+  <si>
+    <t>8.3.3:Physical media transfer</t>
+  </si>
+  <si>
+    <t>ID.AM-1:Physical devices and systems within the organization are inventoried, PR.AC-2:Physical access to assets is managed and protected, PR.PT-2:Removable media is protected and its use restricted according to policy</t>
+  </si>
+  <si>
+    <t>['phys', 'protect', 'transf']</t>
+  </si>
+  <si>
+    <t>9.1.1:Access control policy</t>
+  </si>
+  <si>
+    <t>PR.AC-4:Access permissions and authorizations are managed, incorporating the principles of least privilege and separation of duties</t>
+  </si>
+  <si>
+    <t>['control', 'access control', 'policy']</t>
+  </si>
+  <si>
+    <t>9.1.2:Access to networks and network services</t>
+  </si>
+  <si>
+    <t>PR.AC-5:Network integrity is protected (e.g., network segregation, network segmentation)</t>
+  </si>
+  <si>
+    <t>['network serv', 'access', 'serv']</t>
+  </si>
+  <si>
+    <t>9.2.1:User registration and de-registration</t>
+  </si>
+  <si>
+    <t>ID.GV-3:Legal and regulatory requirements regarding cybersecurity, including privacy and civil liberties obligations, are understood and managed</t>
+  </si>
+  <si>
+    <t>['reg', 'us reg', 'registration']</t>
+  </si>
+  <si>
+    <t>9.2.2:User access provisioning</t>
+  </si>
+  <si>
+    <t>PR.AC-1:Identities and credentials are issued, managed, verified, revoked, and audited for authorized devices, users and processes</t>
+  </si>
+  <si>
+    <t>['us', 'provid', 'us access']</t>
+  </si>
+  <si>
+    <t>9.2.3:Management of privileged access rights</t>
+  </si>
+  <si>
+    <t>['access', 'access right', 'privileg access']</t>
+  </si>
+  <si>
+    <t>9.2.4:Management of secret authentication information of users</t>
+  </si>
+  <si>
+    <t>['secret', 'secret auth', 'us']</t>
+  </si>
+  <si>
+    <t>9.2.5:Review of user access rights</t>
+  </si>
+  <si>
+    <t>PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy</t>
+  </si>
+  <si>
+    <t>['right', 'access', 'access right']</t>
+  </si>
+  <si>
+    <t>9.2.6:Removal or adjustment of access rights</t>
+  </si>
+  <si>
+    <t>PR.MA-2:Remote maintenance of organizational assets is approved, logged, and performed in a manner that prevents unauthorized access</t>
+  </si>
+  <si>
+    <t>['remov', 'right', 'access right']</t>
+  </si>
+  <si>
+    <t>9.3.1:Use of secret authentication information</t>
+  </si>
+  <si>
+    <t>PR.AC-1:Identities and credentials are issued, managed, verified, revoked, and audited for authorized devices, users and processes, PR.AC-4:Access permissions and authorizations are managed, incorporating the principles of least privilege and separation of duties, PR.AT-1:All users are informed and trained</t>
+  </si>
+  <si>
+    <t>['us', 'secret auth', 'secret']</t>
+  </si>
+  <si>
+    <t>9.4.1:Information access restriction</t>
+  </si>
+  <si>
+    <t>['asset', 'control', 'restrict']</t>
+  </si>
+  <si>
+    <t>9.4.2:Secure log-on procedures</t>
+  </si>
+  <si>
+    <t>['proc', 'sec log', 'on proc']</t>
+  </si>
+  <si>
+    <t>9.4.3:Password management system</t>
+  </si>
+  <si>
+    <t>PR.DS-4:Adequate capacity to ensure availability is maintained, PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy, PR.PT-2:Removable media is protected and its use restricted according to policy</t>
+  </si>
+  <si>
+    <t>['policy', 'password man', 'maintain']</t>
+  </si>
+  <si>
+    <t>9.4.4:Use of privileged utility programs</t>
+  </si>
+  <si>
+    <t>['util', 'util program', 'privileg']</t>
+  </si>
+  <si>
+    <t>9.4.5:Access control to program source code Control</t>
+  </si>
+  <si>
+    <t>PR.IP-1:A baseline configuration of information technology/industrial control systems is created and maintained incorporating security principles (e.g. concept of least functionality)</t>
+  </si>
+  <si>
+    <t>['program', 'sourc', 'program sourc']</t>
+  </si>
+  <si>
+    <t>10.1.1:Policy on the use of cryptographic controls</t>
+  </si>
+  <si>
+    <t>ID.GV-1:Organizational cybersecurity policy is established and communicated, PR.PT-2:Removable media is protected and its use restricted according to policy, PR.PT-4:Communications and control networks are protected</t>
+  </si>
+  <si>
+    <t>['control', 'protect', 'cryptograph']</t>
+  </si>
+  <si>
+    <t>10.1.2:Key management</t>
+  </si>
+  <si>
+    <t>ID.GV-3:Legal and regulatory requirements regarding cybersecurity, including privacy and civil liberties obligations, are understood and managed, PR.IP-11:Cybersecurity is included in human resources practices (e.g., deprovisioning, personnel screening)</t>
+  </si>
+  <si>
+    <t>['key', 'key man', 'sec includ']</t>
+  </si>
+  <si>
+    <t>11.1.1:Physical security perimeter</t>
+  </si>
+  <si>
+    <t>PR.AC-2:Physical access to assets is managed and protected</t>
+  </si>
+  <si>
+    <t>['perimet', 'sec perimet', 'protect']</t>
+  </si>
+  <si>
+    <t>11.1.2:Physical entry controls</t>
+  </si>
+  <si>
+    <t>PR.AC-1:Identities and credentials are issued, managed, verified, revoked, and audited for authorized devices, users and processes, PR.AC-2:Physical access to assets is managed and protected, PR.AC-4:Access permissions and authorizations are managed, incorporating the principles of least privilege and separation of duties</t>
+  </si>
+  <si>
+    <t>['auth', 'phys', 'control']</t>
+  </si>
+  <si>
+    <t>11.1.3:Securing offices, rooms and facilities</t>
+  </si>
+  <si>
+    <t>ID.BE-3:Priorities for organizational mission, objectives, and activities are established and communicated, PR.MA-1:Maintenance and repair of organizational assets are performed and logged, with approved and controlled tools, PR.MA-2:Remote maintenance of organizational assets is approved, logged, and performed in a manner that prevents unauthorized access</t>
+  </si>
+  <si>
+    <t>['perform', 'maint', 'approv']</t>
+  </si>
+  <si>
+    <t>11.1.4:Protecting against external and environmental threats</t>
+  </si>
+  <si>
+    <t>ID.RA-3:Threats, both internal and external, are identified and documented, RS.AN-5:Processes are established to receive, analyze and respond to vulnerabilities disclosed to the organization from internal and external sources (e.g. internal testing, security bulletins, or security researchers), RC.CO-3:Recovery activities are communicated to internal and external stakeholders as well as executive and management teams</t>
+  </si>
+  <si>
+    <t>['intern', 'intern extern', 'threats']</t>
+  </si>
+  <si>
+    <t>11.1.5:Working in secure areas</t>
+  </si>
+  <si>
+    <t>['sec includ', 'requir', 'work sec']</t>
+  </si>
+  <si>
+    <t>11.1.6:Delivery and loading areas</t>
+  </si>
+  <si>
+    <t>ID.AM-5:Resources (e.g., hardware, devices, data, time, personnel, and software) are prioritized based on their classification, criticality, and business value, ID.BE-1:The organizationâ€™s role in the supply chain is identified and communicated</t>
+  </si>
+  <si>
+    <t>['delivery', 'delivery load', 'personnel']</t>
+  </si>
+  <si>
+    <t>11.2.1:Equipment siting and protection</t>
+  </si>
+  <si>
+    <t>['equip', 'sit', 'equip sit']</t>
+  </si>
+  <si>
+    <t>11.2.2:Supporting utilities</t>
+  </si>
+  <si>
+    <t>PR.AC-6:Identities are proofed and bound to credentials and asserted in interactions, PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy, DE.AE-3:Event data are collected and correlated from multiple sources and sensors</t>
+  </si>
+  <si>
+    <t>['support', 'support util', 'util support']</t>
+  </si>
+  <si>
+    <t>11.2.3:Cabling security</t>
+  </si>
+  <si>
+    <t>ID.AM-4:External information systems are catalogued, PR.DS-4:Adequate capacity to ensure availability is maintained, PR.PT-4:Communications and control networks are protected</t>
+  </si>
+  <si>
+    <t>['cabl sec', 'sec cabl', 'protect']</t>
+  </si>
+  <si>
+    <t>11.2.4:Equipment maintenance</t>
+  </si>
+  <si>
+    <t>PR.DS-4:Adequate capacity to ensure availability is maintained, PR.MA-1:Maintenance and repair of organizational assets are performed and logged, with approved and controlled tools, PR.MA-2:Remote maintenance of organizational assets is approved, logged, and performed in a manner that prevents unauthorized access</t>
+  </si>
+  <si>
+    <t>['equip', 'perform', 'approv']</t>
+  </si>
+  <si>
+    <t>11.2.5:Removal of assets</t>
+  </si>
+  <si>
+    <t>ID.RA-1:Asset vulnerabilities are identified and documented, PR.DS-3:Assets are formally managed throughout removal, transfers, and disposition, PR.IP-5:Policy and regulations regarding the physical operating environment for organizational assets are met</t>
+  </si>
+  <si>
+    <t>['remov', 'remov asset', 'asset remov']</t>
+  </si>
+  <si>
+    <t>11.2.6:Security of equipment and assets off-premises</t>
+  </si>
+  <si>
     <t>PR.DS-3:Assets are formally managed throughout removal, transfers, and disposition</t>
   </si>
   <si>
-    <t>['own', 'man', 'remov']</t>
-  </si>
-  <si>
-    <t>8.1.3:Acceptable use of assets</t>
-  </si>
-  <si>
-    <t>PR.AC-2:Physical access to assets is managed and protected, PR.AC-3:Remote access is managed, PR.DS-5:Protections against data leaks are implemented</t>
-  </si>
-  <si>
-    <t>['protect', 'man', 'asset']</t>
-  </si>
-  <si>
-    <t>8.1.4:Return of assets</t>
-  </si>
-  <si>
-    <t>PR.DS-4:Adequate capacity to ensure availability is maintained, PR.IP-5:Policy and regulations regarding the physical operating environment for organizational assets are met, RC.CO-1:Public relations are managed</t>
-  </si>
-  <si>
-    <t>['ens', 'environ', 'policy']</t>
-  </si>
-  <si>
-    <t>8.2.1:Classification of information</t>
-  </si>
-  <si>
-    <t>PR.DS-5:Protections against data leaks are implemented, PR.IP-8:Effectiveness of protection technologies is shared, DE.AE-3:Event data are collected and correlated from multiple sources and sensors</t>
-  </si>
-  <si>
-    <t>['class', 'dat', 'monit']</t>
-  </si>
-  <si>
-    <t>8.2.2:Labelling of information</t>
-  </si>
-  <si>
-    <t>ID.BE-2:The organizationâ€™s place in critical infrastructure and its industry sector is identified and communicated, PR.DS-4:Adequate capacity to ensure availability is maintained, PR.IP-4:Backups of information are conducted, maintained, and tested</t>
-  </si>
-  <si>
-    <t>['maintain', 'crit', 'plan']</t>
-  </si>
-  <si>
-    <t>8.2.3:Handling of assets</t>
-  </si>
-  <si>
-    <t>ID.BE-2:The organizationâ€™s place in critical infrastructure and its industry sector is identified and communicated, PR.IP-4:Backups of information are conducted, maintained, and tested, PR.IP-12:A vulnerability management plan is developed and implemented</t>
-  </si>
-  <si>
-    <t>['crit', 'vuln', 'ident']</t>
-  </si>
-  <si>
-    <t>8.3.1:Management of removable media Control</t>
-  </si>
-  <si>
-    <t>PR.DS-1:Data-at-rest is protected, PR.IP-6:Data is destroyed according to policy, PR.PT-2:Removable media is protected and its use restricted according to policy</t>
-  </si>
-  <si>
-    <t>['protect', 'remov', 'remov med']</t>
-  </si>
-  <si>
-    <t>8.3.2:Disposal of media</t>
-  </si>
-  <si>
-    <t>['protect', 'dispos', 'policy']</t>
-  </si>
-  <si>
-    <t>8.3.3:Physical media transfer</t>
-  </si>
-  <si>
-    <t>PR.DS-1:Data-at-rest is protected, PR.DS-2:Data-in-transit is protected, PR.PT-2:Removable media is protected and its use restricted according to policy</t>
-  </si>
-  <si>
-    <t>['protect', 'data', 'phys']</t>
-  </si>
-  <si>
-    <t>9.1.1:Access control policy</t>
-  </si>
-  <si>
-    <t>['man', 'auth', 'access control']</t>
-  </si>
-  <si>
-    <t>9.1.2:Access to networks and network services</t>
-  </si>
-  <si>
-    <t>PR.AC-5:Network integrity is protected (e.g., network segregation, network segmentation)</t>
-  </si>
-  <si>
-    <t>['access', 'serv', 'network serv']</t>
-  </si>
-  <si>
-    <t>9.2.1:User registration and de-registration</t>
-  </si>
-  <si>
-    <t>['access', 'funct', 'provid']</t>
-  </si>
-  <si>
-    <t>9.2.2:User access provisioning</t>
-  </si>
-  <si>
-    <t>['man', 'auth', 'ac']</t>
-  </si>
-  <si>
-    <t>9.2.3:Management of privileged access rights</t>
-  </si>
-  <si>
-    <t>PR.AC-4:Access permissions and authorizations are managed, incorporating the principles of least privilege and separation of duties</t>
-  </si>
-  <si>
-    <t>['privileg', 'man', 'auth']</t>
-  </si>
-  <si>
-    <t>9.2.4:Management of secret authentication information of users</t>
+    <t>['asset', 'off premises', 'premises']</t>
+  </si>
+  <si>
+    <t>11.2.7:Secure disposal or re-use of equipment Control</t>
   </si>
   <si>
     <t>PR.AC-7:Users, devices, and other assets are authenticated (e.g., single-factor, multi-factor) commensurate with the risk of the transaction (e.g., individualsâ€™ security and privacy risks and other organizational risks)</t>
   </si>
   <si>
-    <t>['us', 'risk', 'secret']</t>
-  </si>
-  <si>
-    <t>9.2.5:Review of user access rights</t>
-  </si>
-  <si>
-    <t>PR.AC-2:Physical access to assets is managed and protected, PR.DS-2:Data-in-transit is protected, PR.DS-5:Protections against data leaks are implemented</t>
-  </si>
-  <si>
-    <t>['protect', 'phys', 'review']</t>
-  </si>
-  <si>
-    <t>9.2.6:Removal or adjustment of access rights</t>
-  </si>
-  <si>
-    <t>['access', 'remov', 'access right']</t>
-  </si>
-  <si>
-    <t>9.3.1:Use of secret authentication information</t>
-  </si>
-  <si>
-    <t>PR.AT-1:All users are informed and trained, PR.DS-5:Protections against data leaks are implemented, PR.IP-4:Backups of information are conducted, maintained, and tested</t>
-  </si>
-  <si>
-    <t>['train', 'auth', 'test']</t>
-  </si>
-  <si>
-    <t>9.4.1:Information access restriction</t>
-  </si>
-  <si>
-    <t>9.4.2:Secure log-on procedures</t>
-  </si>
-  <si>
-    <t>['protect', 'policy', 'proc']</t>
-  </si>
-  <si>
-    <t>9.4.3:Password management system</t>
-  </si>
-  <si>
-    <t>['compon', 'man', 'password']</t>
-  </si>
-  <si>
-    <t>9.4.4:Use of privileged utility programs</t>
-  </si>
-  <si>
-    <t>PR.PT-5:Mechanisms (e.g., failsafe, load balancing, hot swap) are implemented to achieve resilience requirements in normal and adverse situations</t>
-  </si>
-  <si>
-    <t>['util program', 'util', 'altern']</t>
-  </si>
-  <si>
-    <t>9.4.5:Access control to program source code Control</t>
-  </si>
-  <si>
-    <t>DE.AE-3:Event data are collected and correlated from multiple sources and sensors</t>
-  </si>
-  <si>
-    <t>['program', 'program sourc', 'cod']</t>
-  </si>
-  <si>
-    <t>10.1.1:Policy on the use of cryptographic controls</t>
-  </si>
-  <si>
-    <t>PR.DS-5:Protections against data leaks are implemented, PR.IP-4:Backups of information are conducted, maintained, and tested, PR.IP-8:Effectiveness of protection technologies is shared</t>
-  </si>
-  <si>
-    <t>['access', 'backup', 'shar']</t>
-  </si>
-  <si>
-    <t>10.1.2:Key management</t>
-  </si>
-  <si>
-    <t>PR.DS-1:Data-at-rest is protected, PR.DS-2:Data-in-transit is protected</t>
-  </si>
-  <si>
-    <t>['med', 'key', 'data']</t>
-  </si>
-  <si>
-    <t>11.1.1:Physical security perimeter</t>
-  </si>
-  <si>
-    <t>['protect', 'phys', 'perimet']</t>
-  </si>
-  <si>
-    <t>11.1.2:Physical entry controls</t>
-  </si>
-  <si>
-    <t>PR.AT-1:All users are informed and trained, PR.IP-4:Backups of information are conducted, maintained, and tested, PR.PT-3:The principle of least functionality is incorporated by configuring systems to provide only essential capabilities</t>
-  </si>
-  <si>
-    <t>['us', 'system', 'train']</t>
-  </si>
-  <si>
-    <t>11.1.3:Securing offices, rooms and facilities</t>
-  </si>
-  <si>
-    <t>['facil', 'incid handl', 'handl']</t>
-  </si>
-  <si>
-    <t>11.1.4:Protecting against external and environmental threats</t>
-  </si>
-  <si>
-    <t>ID.RA-3:Threats, both internal and external, are identified and documented, PR.DS-7:The development and testing environment(s) are separate from the production environment, PR.IP-5:Policy and regulations regarding the physical operating environment for organizational assets are met</t>
-  </si>
-  <si>
-    <t>['threats', 'extern', 'protect']</t>
-  </si>
-  <si>
-    <t>11.1.5:Working in secure areas</t>
-  </si>
-  <si>
-    <t>['act', 'incid handl', 'handl']</t>
-  </si>
-  <si>
-    <t>11.1.6:Delivery and loading areas</t>
-  </si>
-  <si>
-    <t>ID.BE-2:The organizationâ€™s place in critical infrastructure and its industry sector is identified and communicated</t>
-  </si>
-  <si>
-    <t>['delivery', 'crit', 'delivery load']</t>
-  </si>
-  <si>
-    <t>11.2.1:Equipment siting and protection</t>
-  </si>
-  <si>
-    <t>PR.AC-5:Network integrity is protected (e.g., network segregation, network segmentation), PR.DS-5:Protections against data leaks are implemented, PR.IP-8:Effectiveness of protection technologies is shared</t>
-  </si>
-  <si>
-    <t>['network', 'access', 'dat']</t>
-  </si>
-  <si>
-    <t>11.2.2:Supporting utilities</t>
-  </si>
-  <si>
-    <t>DE.AE-4:Impact of events is determined, RC.CO-1:Public relations are managed, RC.CO-3:Recovery activities are communicated to internal and external stakeholders as well as executive and management teams</t>
-  </si>
-  <si>
-    <t>['man', 'act', 'incid handl']</t>
-  </si>
-  <si>
-    <t>11.2.3:Cabling security</t>
-  </si>
-  <si>
-    <t>['protect', 'man', 'ac']</t>
-  </si>
-  <si>
-    <t>11.2.4:Equipment maintenance</t>
-  </si>
-  <si>
-    <t>ID.RA-2:Cyber threat intelligence is received from information sharing forums and sources, RS.CO-5:Voluntary information sharing occurs with external stakeholders to achieve broader cybersecurity situational awareness</t>
-  </si>
-  <si>
-    <t>['equip', 'maint', 'threat']</t>
-  </si>
-  <si>
-    <t>11.2.5:Removal of assets</t>
-  </si>
-  <si>
-    <t>PR.DS-2:Data-in-transit is protected, PR.DS-3:Assets are formally managed throughout removal, transfers, and disposition, PR.IP-5:Policy and regulations regarding the physical operating environment for organizational assets are met</t>
-  </si>
-  <si>
-    <t>['remov', 'protect', 'phys']</t>
-  </si>
-  <si>
-    <t>11.2.6:Security of equipment and assets off-premises</t>
-  </si>
-  <si>
-    <t>PR.DS-2:Data-in-transit is protected</t>
-  </si>
-  <si>
-    <t>['protect', 'transit', 'transit protect']</t>
-  </si>
-  <si>
-    <t>11.2.7:Secure disposal or re-use of equipment Control</t>
-  </si>
-  <si>
-    <t>['protect', 'policy', 'dispos']</t>
+    <t>['equip', 'us', 'dispos']</t>
   </si>
   <si>
     <t>11.2.8:Unattended user equipment Control</t>
   </si>
   <si>
-    <t>PR.DS-2:Data-in-transit is protected, PR.IP-4:Backups of information are conducted, maintained, and tested, PR.IP-8:Effectiveness of protection technologies is shared</t>
-  </si>
-  <si>
-    <t>['us', 'backup', 'shar']</t>
+    <t>PR.AC-2:Physical access to assets is managed and protected, PR.AT-1:All users are informed and trained, PR.PT-2:Removable media is protected and its use restricted according to policy</t>
+  </si>
+  <si>
+    <t>['protect', 'equip', 'unattend']</t>
   </si>
   <si>
     <t>11.2.9:Clear desk and clear screen policy Control</t>
   </si>
   <si>
-    <t>['policy', 'protect', 'dat']</t>
+    <t>['policy', 'screen', 'desk']</t>
   </si>
   <si>
     <t>12.1.1:Documented operating procedures Control</t>
   </si>
   <si>
-    <t>RS.AN-3:Forensics are performed, RC.CO-1:Public relations are managed, RC.CO-2:Reputation is repaired after an incident</t>
-  </si>
-  <si>
-    <t>['proc', 'man', 'handl']</t>
+    <t>['op', 'control', 'docu']</t>
   </si>
   <si>
     <t>12.1.2:Change management</t>
   </si>
   <si>
-    <t>PR.IP-2:A System Development Life Cycle to manage systems is implemented, PR.IP-12:A vulnerability management plan is developed and implemented, DE.CM-8:Vulnerability scans are performed</t>
-  </si>
-  <si>
-    <t>['man', 'impl', 'system']</t>
+    <t>ID.RA-4:Potential business impacts and likelihoods are identified, PR.DS-3:Assets are formally managed throughout removal, transfers, and disposition, PR.IP-3:Configuration change control processes are in place</t>
+  </si>
+  <si>
+    <t>['control', 'process', 'chang man']</t>
   </si>
   <si>
     <t>12.1.3:Capacity management</t>
   </si>
   <si>
-    <t>['man', 'capac', 'handl']</t>
+    <t>ID.RA-4:Potential business impacts and likelihoods are identified, PR.DS-4:Adequate capacity to ensure availability is maintained, PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy</t>
+  </si>
+  <si>
+    <t>['capac man', 'busy', 'man capac']</t>
   </si>
   <si>
     <t>12.1.4:Separation of development, testing and operational environments</t>
@@ -520,103 +532,112 @@
     <t>PR.DS-7:The development and testing environment(s) are separate from the production environment</t>
   </si>
   <si>
-    <t>['test', 'op', 'develop test']</t>
+    <t>['test', 'op', 'develop']</t>
   </si>
   <si>
     <t>12.2.1:Controls against malware Control</t>
   </si>
   <si>
-    <t>PR.DS-7:The development and testing environment(s) are separate from the production environment, PR.IP-12:A vulnerability management plan is developed and implemented, DE.CM-8:Vulnerability scans are performed</t>
-  </si>
-  <si>
-    <t>['scan', 'man', 'environ']</t>
+    <t>ID.SC-3:Contracts with suppliers and third-party partners are used to implement appropriate measures designed to meet the objectives of an organizationâ€™s cybersecurity program and Cyber Supply Chain Risk Management Plan, PR.IP-12:A vulnerability management plan is developed and implemented</t>
+  </si>
+  <si>
+    <t>['impl', 'malw', 'plan']</t>
   </si>
   <si>
     <t>12.3.1:Information backup</t>
   </si>
   <si>
-    <t>PR.DS-4:Adequate capacity to ensure availability is maintained, PR.IP-4:Backups of information are conducted, maintained, and tested</t>
-  </si>
-  <si>
-    <t>['maintain', 'test', 'ens']</t>
+    <t>PR.IP-4:Backups of information are conducted, maintained, and tested</t>
+  </si>
+  <si>
+    <t>['test', 'inform', 'inform backup']</t>
   </si>
   <si>
     <t>12.4.1:Event logging</t>
   </si>
   <si>
-    <t>PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy, DE.AE-3:Event data are collected and correlated from multiple sources and sensors, DE.AE-4:Impact of events is determined</t>
-  </si>
-  <si>
-    <t>['log', 'determin', 'audit']</t>
+    <t>DE.AE-2:Detected events are analyzed to understand attack targets and methods, DE.AE-3:Event data are collected and correlated from multiple sources and sensors, DE.AE-4:Impact of events is determined</t>
+  </si>
+  <si>
+    <t>['log', 'ev log', 'log ev']</t>
   </si>
   <si>
     <t>12.4.2:Protection of log information</t>
   </si>
   <si>
-    <t>PR.DS-2:Data-in-transit is protected, PR.DS-5:Protections against data leaks are implemented, PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy</t>
-  </si>
-  <si>
-    <t>['log', 'impl', 'audit']</t>
+    <t>ID.RA-1:Asset vulnerabilities are identified and documented, PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy, RS.MI-3:Newly identified vulnerabilities are mitigated or documented as accepted risks</t>
+  </si>
+  <si>
+    <t>['docu', 'ident', 'protect']</t>
   </si>
   <si>
     <t>12.4.3:Administrator and operator logs</t>
   </si>
   <si>
-    <t>ID.AM-3:Organizational communication and data flows are mapped, ID.BE-2:The organizationâ€™s place in critical infrastructure and its industry sector is identified and communicated, RC.CO-1:Public relations are managed</t>
-  </si>
-  <si>
-    <t>['crit', 'man', 'infrastruct']</t>
+    <t>PR.MA-1:Maintenance and repair of organizational assets are performed and logged, with approved and controlled tools, PR.MA-2:Remote maintenance of organizational assets is approved, logged, and performed in a manner that prevents unauthorized access, PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy</t>
+  </si>
+  <si>
+    <t>['admin', 'asset', 'perform']</t>
   </si>
   <si>
     <t>12.4.4:Clock synchronisation Control</t>
   </si>
   <si>
-    <t>['requir', 'synchron', 'impl']</t>
+    <t>ID.GV-2:Cybersecurity roles and responsibilities are coordinated and aligned with internal roles and external partners, DE.AE-2:Detected events are analyzed to understand attack targets and methods, RS.AN-5:Processes are established to receive, analyze and respond to vulnerabilities disclosed to the organization from internal and external sources (e.g. internal testing, security bulletins, or security researchers)</t>
+  </si>
+  <si>
+    <t>['clock', 'synchron', 'extern']</t>
   </si>
   <si>
     <t>12.5.1:Installation of software on operational systems Control</t>
   </si>
   <si>
-    <t>['system', 'op', 'funct']</t>
+    <t>DE.AE-1:A baseline of network operations and expected data flows for users and systems is established and managed</t>
+  </si>
+  <si>
+    <t>['op', 'system', 'control']</t>
   </si>
   <si>
     <t>12.6.1:Management of technical vulnerabilities</t>
   </si>
   <si>
-    <t>PR.IP-12:A vulnerability management plan is developed and implemented, DE.CM-8:Vulnerability scans are performed</t>
-  </si>
-  <si>
-    <t>['man', 'techn', 'vuln man']</t>
+    <t>RS.MI-3:Newly identified vulnerabilities are mitigated or documented as accepted risks</t>
+  </si>
+  <si>
+    <t>['techn', 'techn vuln', 'risk']</t>
   </si>
   <si>
     <t>12.6.2:Restrictions on software installation Control</t>
   </si>
   <si>
-    <t>['inv', 'compon', 'system']</t>
+    <t>ID.AM-2:Software platforms and applications within the organization are inventoried</t>
+  </si>
+  <si>
+    <t>['instal', 'softw instal', 'control']</t>
   </si>
   <si>
     <t>12.7.1:Information systems audit controls</t>
   </si>
   <si>
-    <t>PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy, RS.AN-3:Forensics are performed, RS.CO-2:Incidents are reported consistent with established criteria</t>
-  </si>
-  <si>
-    <t>['incid', 'record', 'report']</t>
+    <t>PR.IP-2:A System Development Life Cycle to manage systems is implemented, PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy</t>
+  </si>
+  <si>
+    <t>['system', 'impl', 'control']</t>
   </si>
   <si>
     <t>13.1.1:Network controls Control</t>
   </si>
   <si>
-    <t>['network', 'access', 'backup']</t>
+    <t>PR.AC-5:Network integrity is protected (e.g., network segregation, network segmentation), PR.PT-4:Communications and control networks are protected</t>
+  </si>
+  <si>
+    <t>['control', 'protect', 'control network']</t>
   </si>
   <si>
     <t>13.1.2:Security of network services</t>
   </si>
   <si>
-    <t>PR.AC-5:Network integrity is protected (e.g., network segregation, network segmentation), PR.DS-4:Adequate capacity to ensure availability is maintained, PR.PT-4:Communications and control networks are protected</t>
-  </si>
-  <si>
-    <t>['serv', 'protect', 'network serv']</t>
+    <t>['serv', 'network serv', 'sec network']</t>
   </si>
   <si>
     <t>13.1.3:Segregation in networks</t>
@@ -628,151 +649,145 @@
     <t>13.2.1:Information transfer policies and procedures</t>
   </si>
   <si>
+    <t>['proc', 'transf', 'protect']</t>
+  </si>
+  <si>
     <t>13.2.2:Agreements on information transfer</t>
   </si>
   <si>
-    <t>PR.DS-3:Assets are formally managed throughout removal, transfers, and disposition, PR.DS-4:Adequate capacity to ensure availability is maintained, PR.IP-4:Backups of information are conducted, maintained, and tested</t>
-  </si>
-  <si>
-    <t>['transf', 'agr', 'backup']</t>
+    <t>PR.DS-5:Protections against data leaks are implemented, PR.PT-5:Mechanisms (e.g., failsafe, load balancing, hot swap) are implemented to achieve resilience requirements in normal and adverse situations, RS.CO-5:Voluntary information sharing occurs with external stakeholders to achieve broader cybersecurity situational awareness</t>
+  </si>
+  <si>
+    <t>['transf', 'achiev', 'situ']</t>
   </si>
   <si>
     <t>13.2.3:Electronic messaging</t>
   </si>
   <si>
-    <t>PR.AC-5:Network integrity is protected (e.g., network segregation, network segmentation), PR.DS-4:Adequate capacity to ensure availability is maintained, RC.CO-1:Public relations are managed</t>
-  </si>
-  <si>
-    <t>['protect', 'man', 'mess']</t>
+    <t>PR.AC-5:Network integrity is protected (e.g., network segregation, network segmentation), PR.MA-2:Remote maintenance of organizational assets is approved, logged, and performed in a manner that prevents unauthorized access, PR.PT-4:Communications and control networks are protected</t>
+  </si>
+  <si>
+    <t>['mess', 'electron', 'protect']</t>
   </si>
   <si>
     <t>13.2.4:Confidentiality or non-disclosure agreements</t>
   </si>
   <si>
-    <t>ID.AM-3:Organizational communication and data flows are mapped</t>
-  </si>
-  <si>
-    <t>['confid', 'disclos', 'flow']</t>
+    <t>['agr', 'requir', 'disclos']</t>
   </si>
   <si>
     <t>14.1.1:Information security requirements analysis and specification</t>
   </si>
   <si>
-    <t>PR.AC-1:Identities and credentials are issued, managed, verified, revoked, and audited for authorized devices, users and processes</t>
-  </si>
-  <si>
-    <t>['auth', 'us', 'id']</t>
+    <t>['sec requir', 'inform', 'inform sec']</t>
   </si>
   <si>
     <t>14.1.2:Securing application services on public networks</t>
   </si>
   <si>
-    <t>['protect', 'integr', 'serv']</t>
+    <t>['serv', 'publ', 'apply']</t>
   </si>
   <si>
     <t>14.1.3:Protecting application services transactions</t>
   </si>
   <si>
-    <t>PR.DS-4:Adequate capacity to ensure availability is maintained, PR.IP-4:Backups of information are conducted, maintained, and tested, PR.IP-7:Protection processes are improved</t>
-  </si>
-  <si>
-    <t>['maintain', 'serv', 'plan']</t>
+    <t>ID.AM-2:Software platforms and applications within the organization are inventoried, PR.DS-5:Protections against data leaks are implemented, PR.PT-2:Removable media is protected and its use restricted according to policy</t>
+  </si>
+  <si>
+    <t>['apply', 'transact', 'serv']</t>
   </si>
   <si>
     <t>14.2.1:Secure development policy Control</t>
   </si>
   <si>
-    <t>PR.IP-4:Backups of information are conducted, maintained, and tested, PR.IP-5:Policy and regulations regarding the physical operating environment for organizational assets are met, PR.IP-6:Data is destroyed according to policy</t>
-  </si>
-  <si>
-    <t>['dat', 'backup', 'environ']</t>
+    <t>PR.DS-7:The development and testing environment(s) are separate from the production environment, PR.IP-5:Policy and regulations regarding the physical operating environment for organizational assets are met, PR.IP-12:A vulnerability management plan is developed and implemented</t>
+  </si>
+  <si>
+    <t>['environ', 'policy', 'sec develop']</t>
   </si>
   <si>
     <t>14.2.2:System change control procedures</t>
   </si>
   <si>
-    <t>PR.IP-3:Configuration change control processes are in place</t>
-  </si>
-  <si>
-    <t>['chang control', 'config', 'proc']</t>
+    <t>['chang', 'chang control', 'proc']</t>
   </si>
   <si>
     <t>14.2.3:Technical review of applications after operating platform changes</t>
   </si>
   <si>
-    <t>PR.AT-1:All users are informed and trained, DE.CM-7:Monitoring for unauthorized personnel, connections, devices, and software is performed, RS.AN-3:Forensics are performed</t>
-  </si>
-  <si>
-    <t>['train', 'perform', 'us']</t>
+    <t>['apply', 'op', 'op platform']</t>
   </si>
   <si>
     <t>14.2.4:Restrictions on changes to software packages</t>
   </si>
   <si>
+    <t>ID.AM-2:Software platforms and applications within the organization are inventoried, PR.DS-6:Integrity checking mechanisms are used to verify software, firmware, and information integrity, PR.PT-2:Removable media is protected and its use restricted according to policy</t>
+  </si>
+  <si>
+    <t>['restrict', 'integr', 'pack']</t>
+  </si>
+  <si>
     <t>14.2.5:Secure system engineering principles</t>
   </si>
   <si>
-    <t>['engin', 'sec engin', 'funct']</t>
+    <t>RS.AN-5:Processes are established to receive, analyze and respond to vulnerabilities disclosed to the organization from internal and external sources (e.g. internal testing, security bulletins, or security researchers)</t>
+  </si>
+  <si>
+    <t>['sec engin', 'principl', 'engin principl']</t>
   </si>
   <si>
     <t>14.2.6:Secure development environment</t>
   </si>
   <si>
-    <t>PR.DS-7:The development and testing environment(s) are separate from the production environment, PR.IP-5:Policy and regulations regarding the physical operating environment for organizational assets are met, PR.IP-8:Effectiveness of protection technologies is shared</t>
-  </si>
-  <si>
-    <t>['protect', 'produc', 'develop environ']</t>
+    <t>['develop', 'develop environ', 'sec develop']</t>
   </si>
   <si>
     <t>14.2.7:Outsourced development</t>
   </si>
   <si>
-    <t>PR.DS-4:Adequate capacity to ensure availability is maintained, DE.AE-3:Event data are collected and correlated from multiple sources and sensors, DE.AE-4:Impact of events is determined</t>
-  </si>
-  <si>
-    <t>['cont', 'plan', 'determin']</t>
+    <t>PR.DS-7:The development and testing environment(s) are separate from the production environment, PR.IP-2:A System Development Life Cycle to manage systems is implemented, PR.IP-12:A vulnerability management plan is developed and implemented</t>
+  </si>
+  <si>
+    <t>['environ', 'impl', 'outsourc']</t>
   </si>
   <si>
     <t>14.2.8:System security testing</t>
   </si>
   <si>
-    <t>['system', 'us', 'train']</t>
+    <t>ID.RA-2:Cyber threat intelligence is received from information sharing forums and sources, ID.RA-3:Threats, both internal and external, are identified and documented, RS.AN-5:Processes are established to receive, analyze and respond to vulnerabilities disclosed to the organization from internal and external sources (e.g. internal testing, security bulletins, or security researchers)</t>
+  </si>
+  <si>
+    <t>['intern', 'receiv', 'extern']</t>
   </si>
   <si>
     <t>14.2.9:System acceptance testing</t>
   </si>
   <si>
-    <t>PR.AT-1:All users are informed and trained, PR.IP-4:Backups of information are conducted, maintained, and tested, PR.IP-10:Response and recovery plans are tested</t>
-  </si>
-  <si>
-    <t>['plan', 'train', 'system']</t>
+    <t>PR.DS-7:The development and testing environment(s) are separate from the production environment, PR.IP-2:A System Development Life Cycle to manage systems is implemented, PR.IP-4:Backups of information are conducted, maintained, and tested</t>
+  </si>
+  <si>
+    <t>['system', 'environ', 'develop']</t>
   </si>
   <si>
     <t>14.3.1:Protection of test data</t>
   </si>
   <si>
-    <t>ID.AM-3:Organizational communication and data flows are mapped, PR.DS-5:Protections against data leaks are implemented, PR.IP-7:Protection processes are improved</t>
-  </si>
-  <si>
-    <t>['dat', 'protect dat', 'flow']</t>
+    <t>PR.DS-5:Protections against data leaks are implemented, PR.IP-6:Data is destroyed according to policy, DE.AE-3:Event data are collected and correlated from multiple sources and sensors</t>
+  </si>
+  <si>
+    <t>['protect', 'protect dat', 'dat protect']</t>
   </si>
   <si>
     <t>15.1.1:Information security policy for supplier relationships</t>
   </si>
   <si>
-    <t>PR.AC-3:Remote access is managed, PR.PT-3:The principle of least functionality is incorporated by configuring systems to provide only essential capabilities</t>
-  </si>
-  <si>
-    <t>['supply', 'policy', 'system']</t>
+    <t>['access', 'policy', 'typ']</t>
   </si>
   <si>
     <t>15.1.2:Addressing security within supplier agreements</t>
   </si>
   <si>
-    <t>PR.DS-2:Data-in-transit is protected, PR.DS-5:Protections against data leaks are implemented</t>
-  </si>
-  <si>
-    <t>['access', 'agr', 'supply']</t>
+    <t>['requir', 'includ', 'agr']</t>
   </si>
   <si>
     <t>15.1.3:Information and communication technology supply chain</t>
@@ -781,175 +796,178 @@
     <t>ID.BE-1:The organizationâ€™s role in the supply chain is identified and communicated</t>
   </si>
   <si>
-    <t>['supply chain', 'chain', 'commun']</t>
+    <t>['commun', 'supply chain', 'chain']</t>
   </si>
   <si>
     <t>15.2.1:Monitoring and review of supplier services</t>
   </si>
   <si>
-    <t>['supply', 'serv', 'review']</t>
+    <t>['supply', 'serv', 'monit']</t>
   </si>
   <si>
     <t>15.2.2:Managing changes to supplier services Control</t>
   </si>
   <si>
-    <t>ID.AM-3:Organizational communication and data flows are mapped, PR.DS-4:Adequate capacity to ensure availability is maintained, RC.CO-1:Public relations are managed</t>
-  </si>
-  <si>
-    <t>['serv', 'flow', 'commun']</t>
+    <t>ID.SC-2:Suppliers and third party partners of information systems, components, and services are identified, prioritized, and assessed using a cyber supply chain risk assessment process, ID.SC-3:Contracts with suppliers and third-party partners are used to implement appropriate measures designed to meet the objectives of an organizationâ€™s cybersecurity program and Cyber Supply Chain Risk Management Plan</t>
+  </si>
+  <si>
+    <t>['serv', 'assess', 'risk']</t>
   </si>
   <si>
     <t>16.1.1:Responsibilities and procedures</t>
   </si>
   <si>
-    <t>PR.AT-1:All users are informed and trained, PR.IP-4:Backups of information are conducted, maintained, and tested, PR.IP-8:Effectiveness of protection technologies is shared</t>
-  </si>
-  <si>
-    <t>['respons', 'train', 'test']</t>
+    <t>PR.DS-6:Integrity checking mechanisms are used to verify software, firmware, and information integrity, PR.DS-8:Integrity checking mechanisms are used to verify hardware integrity, PR.PT-5:Mechanisms (e.g., failsafe, load balancing, hot swap) are implemented to achieve resilience requirements in normal and adverse situations</t>
+  </si>
+  <si>
+    <t>['mech', 'proc', 'check mech']</t>
   </si>
   <si>
     <t>16.1.2:Reporting information security events</t>
   </si>
   <si>
-    <t>['report', 'ev', 'sec ev']</t>
+    <t>DE.AE-2:Detected events are analyzed to understand attack targets and methods, DE.AE-3:Event data are collected and correlated from multiple sources and sensors, RS.CO-2:Incidents are reported consistent with established criteria</t>
+  </si>
+  <si>
+    <t>['report', 'sec ev', 'report sec']</t>
   </si>
   <si>
     <t>16.1.3:Reporting information security weaknesses</t>
   </si>
   <si>
-    <t>ID.BE-2:The organizationâ€™s place in critical infrastructure and its industry sector is identified and communicated, PR.DS-4:Adequate capacity to ensure availability is maintained, DE.CM-4:Malicious code is detected</t>
-  </si>
-  <si>
-    <t>['malicy', 'cod', 'malicy cod']</t>
+    <t>PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy, PR.PT-5:Mechanisms (e.g., failsafe, load balancing, hot swap) are implemented to achieve resilience requirements in normal and adverse situations, RS.CO-5:Voluntary information sharing occurs with external stakeholders to achieve broader cybersecurity situational awareness</t>
+  </si>
+  <si>
+    <t>['weak', 'impl', 'situ']</t>
   </si>
   <si>
     <t>16.1.4:Assessment of and decision on information security events Control</t>
   </si>
   <si>
-    <t>ID.RA-1:Asset vulnerabilities are identified and documented, ID.RA-5:Threats, vulnerabilities, likelihoods, and impacts are used to determine risk, RS.MI-3:Newly identified vulnerabilities are mitigated or documented as accepted risks</t>
-  </si>
-  <si>
-    <t>['risk', 'vuln', 'monit']</t>
+    <t>DE.AE-2:Detected events are analyzed to understand attack targets and methods</t>
+  </si>
+  <si>
+    <t>['decid', 'assess', 'sec ev']</t>
   </si>
   <si>
     <t>16.1.5:Response to information security incidents</t>
   </si>
   <si>
-    <t>PR.IP-8:Effectiveness of protection technologies is shared, RS.CO-2:Incidents are reported consistent with established criteria, RC.CO-2:Reputation is repaired after an incident</t>
-  </si>
-  <si>
-    <t>['respons', 'incid respons', 'report']</t>
+    <t>PR.IP-9:Response plans (Incident Response and Business Continuity) and recovery plans (Incident Recovery and Disaster Recovery) are in place and managed, RS.RP-1:Response plan is executed during or after an incident, RC.RP-1:Recovery plan is executed during or after a cybersecurity incident</t>
+  </si>
+  <si>
+    <t>['recovery', 'plan', 'incid respons']</t>
   </si>
   <si>
     <t>16.1.6:Learning from information security incidents</t>
   </si>
   <si>
-    <t>['man', 'sec incid', 'incid handl']</t>
+    <t>DE.AE-5:Incident alert thresholds are established, RS.AN-2:The impact of the incident is understood, RS.CO-2:Incidents are reported consistent with established criteria</t>
+  </si>
+  <si>
+    <t>['sec incid', 'est', 'learn sec']</t>
   </si>
   <si>
     <t>16.1.7:Collection of evidence</t>
   </si>
   <si>
-    <t>['monit', 'train', 'perform']</t>
+    <t>['collect', 'intern', 'process']</t>
   </si>
   <si>
     <t>17.1.1:Planning information security continuity</t>
   </si>
   <si>
-    <t>['requir', 'advers', 'situ']</t>
+    <t>ID.RA-4:Potential business impacts and likelihoods are identified</t>
+  </si>
+  <si>
+    <t>['busy', 'sec continu', 'plan']</t>
   </si>
   <si>
     <t>17.1.2:Implementing information security continuity</t>
   </si>
   <si>
-    <t>['continu', 'advers situ', 'situ']</t>
+    <t>['continu', 'sec continu', 'maintain']</t>
   </si>
   <si>
     <t>17.1.3:Verify, review and evaluate information security continuity</t>
   </si>
   <si>
-    <t>['sec continu', 'supply', 'chain']</t>
+    <t>DE.DP-5:Detection processes are continuously improved</t>
+  </si>
+  <si>
+    <t>['sec continu', 'ver', 'process']</t>
   </si>
   <si>
     <t>17.2.1:Availability of information processing facilities</t>
   </si>
   <si>
-    <t>PR.IP-11:Cybersecurity is included in human resources practices (e.g., deprovisioning, personnel screening), PR.IP-12:A vulnerability management plan is developed and implemented, DE.CM-8:Vulnerability scans are performed</t>
-  </si>
-  <si>
-    <t>['process', 'scan', 'man']</t>
+    <t>PR.AC-1:Identities and credentials are issued, managed, verified, revoked, and audited for authorized devices, users and processes, PR.AC-6:Identities are proofed and bound to credentials and asserted in interactions, PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy</t>
+  </si>
+  <si>
+    <t>['avail', 'id', 'cred']</t>
   </si>
   <si>
     <t>18.1.1:Identification of applicable legislation and contractual requirements Control</t>
   </si>
   <si>
-    <t>PR.AC-6:Identities are proofed and bound to credentials and asserted in interactions</t>
-  </si>
-  <si>
-    <t>['requir', 'legisl', 'ident']</t>
+    <t>DE.DP-2:Detection activities comply with all applicable requirements</t>
+  </si>
+  <si>
+    <t>['appl', 'legisl', 'contract requir']</t>
   </si>
   <si>
     <t>18.1.2:Intellectual property rights</t>
   </si>
   <si>
-    <t>PR.IP-4:Backups of information are conducted, maintained, and tested</t>
-  </si>
-  <si>
-    <t>['property', 'intellect property', 'intellect']</t>
+    <t>['property', 'right', 'intellect property']</t>
   </si>
   <si>
     <t>18.1.3:Protection of records</t>
   </si>
   <si>
-    <t>PR.DS-2:Data-in-transit is protected, PR.DS-5:Protections against data leaks are implemented, PR.IP-8:Effectiveness of protection technologies is shared</t>
-  </si>
-  <si>
-    <t>['record', 'access', 'dat']</t>
+    <t>['protect', 'stor', 'protect record']</t>
   </si>
   <si>
     <t>18.1.4:Privacy and protection of personally identifiable information</t>
   </si>
   <si>
-    <t>ID.RA-4:Potential business impacts and likelihoods are identified</t>
-  </si>
-  <si>
-    <t>['person', 'person ident', 'busy']</t>
+    <t>['ident', 'protect', 'person ident']</t>
   </si>
   <si>
     <t>18.1.5:Regulation of cryptographic controls</t>
   </si>
   <si>
-    <t>['ens', 'policy', 'environ']</t>
+    <t>ID.GV-3:Legal and regulatory requirements regarding cybersecurity, including privacy and civil liberties obligations, are understood and managed, PR.IP-3:Configuration change control processes are in place, PR.PT-2:Removable media is protected and its use restricted according to policy</t>
+  </si>
+  <si>
+    <t>['control', 'cryptograph', 'cryptograph control']</t>
   </si>
   <si>
     <t>18.2.1:Independent review of information security Control</t>
   </si>
   <si>
-    <t>PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy</t>
-  </si>
-  <si>
-    <t>['audit', 'independ', 'policy']</t>
+    <t>['independ', 'independ review', 'control']</t>
   </si>
   <si>
     <t>18.2.2:Compliance with security policies and standards</t>
   </si>
   <si>
-    <t>ID.BE-2:The organizationâ€™s place in critical infrastructure and its industry sector is identified and communicated, PR.IP-4:Backups of information are conducted, maintained, and tested, PR.IP-5:Policy and regulations regarding the physical operating environment for organizational assets are met</t>
-  </si>
-  <si>
-    <t>['crit', 'ident', 'backup']</t>
+    <t>ID.GV-1:Organizational cybersecurity policy is established and communicated, PR.PT-1:Audit/log records are determined, documented, implemented, and reviewed in accordance with policy, DE.DP-2:Detection activities comply with all applicable requirements</t>
+  </si>
+  <si>
+    <t>['comply', 'sec policy', 'review']</t>
   </si>
   <si>
     <t>18.2.3:Technical compliance review</t>
   </si>
   <si>
-    <t>['scan', 'techn', 'man']</t>
+    <t>['comply', 'techn', 'comply review']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1477,13 +1495,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1501,12 +1513,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:C115" totalsRowShown="0">
-  <autoFilter ref="A1:C115" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C115" totalsRowShown="0">
+  <autoFilter ref="A1:C115"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ISO27002 standards" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NIST Cybersecurity Framework standards" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Common keywords" dataDxfId="2"/>
+    <tableColumn id="1" name="ISO27002 standards"/>
+    <tableColumn id="2" name="NIST Cybersecurity Framework standards" dataDxfId="0"/>
+    <tableColumn id="3" name="Common keywords"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1808,1283 +1820,1283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="C24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C30" t="s">
         <v>86</v>
       </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>89</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>97</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>100</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
         <v>101</v>
       </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
         <v>103</v>
       </c>
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
         <v>108</v>
       </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="C40" t="s">
         <v>111</v>
       </c>
+    </row>
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="C41" t="s">
         <v>114</v>
       </c>
+    </row>
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="C42" t="s">
         <v>117</v>
       </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>119</v>
+      <c r="A44" t="s">
+        <v>121</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>130</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>129</v>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>132</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="C48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>135</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>137</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>140</v>
+      <c r="A52" t="s">
+        <v>143</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>146</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>149</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="C54" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>149</v>
+      <c r="A55" t="s">
+        <v>152</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>155</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>158</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>156</v>
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>160</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>159</v>
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>162</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>165</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>168</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="C61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>171</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>216</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>222</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C82" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>238</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>233</v>
+      <c r="C87" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>234</v>
+      <c r="A88" t="s">
+        <v>240</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C88" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C88" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C91" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>254</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>256</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>259</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C98" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>270</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>273</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C100" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>276</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>279</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>282</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>277</v>
+      <c r="C103" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>284</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
+      </c>
+      <c r="C104" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>287</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>281</v>
+        <v>92</v>
+      </c>
+      <c r="C105" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>289</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
+      </c>
+      <c r="C106" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>283</v>
+      <c r="A107" t="s">
+        <v>292</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
+      </c>
+      <c r="C107" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>295</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
+      </c>
+      <c r="C108" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>298</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>292</v>
+        <v>92</v>
+      </c>
+      <c r="C109" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>300</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>295</v>
+        <v>92</v>
+      </c>
+      <c r="C110" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>302</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>298</v>
+        <v>68</v>
+      </c>
+      <c r="C111" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>304</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
+      </c>
+      <c r="C112" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>307</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>303</v>
+        <v>92</v>
+      </c>
+      <c r="C113" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>309</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
+      </c>
+      <c r="C114" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>306</v>
+      <c r="A115" t="s">
+        <v>312</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>307</v>
+        <v>92</v>
+      </c>
+      <c r="C115" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
